--- a/biology/Médecine/Phentolamine/Phentolamine.xlsx
+++ b/biology/Médecine/Phentolamine/Phentolamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La phentolamine, est un médicament, de type alpha-bloquant, administrée par voie intra veineuse et utilisée dans les urgences hypertensives. Elle est vendue, entre autres sous le nom de marque, Regitine[1].
+La phentolamine, est un médicament, de type alpha-bloquant, administrée par voie intra veineuse et utilisée dans les urgences hypertensives. Elle est vendue, entre autres sous le nom de marque, Regitine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phentolamine est un médicament utilisé pour traiter l'hypertension artérielle dans les phéochromocytomes, à la suite de l'entrée de noradrénaline dans les tissus mous, et les urgences hypertensives. Elle est administrée par injection. Lorsqu'elle est injectée dans une veine, les effets se produisent dans les 2 minutes et durent jusqu'à 30 minutes[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phentolamine est un médicament utilisé pour traiter l'hypertension artérielle dans les phéochromocytomes, à la suite de l'entrée de noradrénaline dans les tissus mous, et les urgences hypertensives. Elle est administrée par injection. Lorsqu'elle est injectée dans une veine, les effets se produisent dans les 2 minutes et durent jusqu'à 30 minutes,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent les douleurs abdominales, les nausées, la diarrhée, les bouffées vasomotrices, le nez bouché et l'hypotension artérielle en position debout ; d'autres effets secondaires peuvent inclure l'infarctus du myocarde et le priapisme. La sécurité pendant la grossesse n'est pas claire. C'est un alpha bloquant[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent les douleurs abdominales, les nausées, la diarrhée, les bouffées vasomotrices, le nez bouché et l'hypotension artérielle en position debout ; d'autres effets secondaires peuvent inclure l'infarctus du myocarde et le priapisme. La sécurité pendant la grossesse n'est pas claire. C'est un alpha bloquant.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phentolamine a été approuvée pour un usage médical aux États-Unis en 1952. Aux États-Unis, il en coûte environ 460 dollars américains par dose à partir de 2021. Au Royaume-Uni, il est disponible avec l'aviptadil pour le traitement de la dysfonction érectile[1],[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phentolamine a été approuvée pour un usage médical aux États-Unis en 1952. Aux États-Unis, il en coûte environ 460 dollars américains par dose à partir de 2021. Au Royaume-Uni, il est disponible avec l'aviptadil pour le traitement de la dysfonction érectile.
 </t>
         </is>
       </c>
